--- a/_static/global/ids_party.xlsx
+++ b/_static/global/ids_party.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chbuschi\PycharmProjects\groupmemory\_static\global\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chbuschi\Documents\Research\Group Memory\Otree\Memory\_static\global\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AAB086D-00B3-440D-974B-F4DEFFD4C90F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48760123-3908-4B16-9B4A-FD14C037CD70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1379" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1586" uniqueCount="153">
   <si>
     <t>prolificid</t>
   </si>
@@ -81,15 +81,6 @@
     <t>&lt;</t>
   </si>
   <si>
-    <t>beliefs_example_order</t>
-  </si>
-  <si>
-    <t>low_high</t>
-  </si>
-  <si>
-    <t>high_low</t>
-  </si>
-  <si>
     <t>none</t>
   </si>
   <si>
@@ -475,6 +466,24 @@
   </si>
   <si>
     <t xml:space="preserve">ingroup </t>
+  </si>
+  <si>
+    <t>beliefs_example_value</t>
+  </si>
+  <si>
+    <t>low</t>
+  </si>
+  <si>
+    <t>high</t>
+  </si>
+  <si>
+    <t>belief_example_direction</t>
+  </si>
+  <si>
+    <t>over</t>
+  </si>
+  <si>
+    <t>under</t>
   </si>
 </sst>
 </file>
@@ -811,15 +820,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L122"/>
+  <dimension ref="A1:M122"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K36" sqref="K36:K37"/>
+    <sheetView tabSelected="1" topLeftCell="A84" workbookViewId="0">
+      <selection activeCell="M2" sqref="M2:M122"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -845,21 +854,24 @@
         <v>15</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+        <v>147</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
@@ -889,21 +901,24 @@
         <v>17</v>
       </c>
       <c r="K2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="L2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+        <v>148</v>
+      </c>
+      <c r="M2" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B3" t="s">
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D3" t="s">
         <v>8</v>
@@ -927,15 +942,18 @@
         <v>16</v>
       </c>
       <c r="K3" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="L3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+        <v>149</v>
+      </c>
+      <c r="M3" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B4" t="s">
         <v>2</v>
@@ -965,21 +983,24 @@
         <v>16</v>
       </c>
       <c r="K4" t="s">
+        <v>145</v>
+      </c>
+      <c r="L4" t="s">
         <v>148</v>
       </c>
-      <c r="L4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M4" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B5" t="s">
         <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D5" t="s">
         <v>8</v>
@@ -1003,15 +1024,18 @@
         <v>16</v>
       </c>
       <c r="K5" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="L5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+        <v>149</v>
+      </c>
+      <c r="M5" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B6" t="s">
         <v>1</v>
@@ -1041,15 +1065,18 @@
         <v>16</v>
       </c>
       <c r="K6" t="s">
+        <v>145</v>
+      </c>
+      <c r="L6" t="s">
         <v>148</v>
       </c>
-      <c r="L6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M6" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B7" t="s">
         <v>2</v>
@@ -1079,21 +1106,24 @@
         <v>17</v>
       </c>
       <c r="K7" t="s">
+        <v>145</v>
+      </c>
+      <c r="L7" t="s">
         <v>148</v>
       </c>
-      <c r="L7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M7" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B8" t="s">
         <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D8" t="s">
         <v>9</v>
@@ -1117,15 +1147,18 @@
         <v>17</v>
       </c>
       <c r="K8" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="L8" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+        <v>149</v>
+      </c>
+      <c r="M8" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B9" t="s">
         <v>1</v>
@@ -1155,21 +1188,24 @@
         <v>17</v>
       </c>
       <c r="K9" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="L9" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+        <v>149</v>
+      </c>
+      <c r="M9" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B10" t="s">
         <v>1</v>
       </c>
       <c r="C10" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D10" t="s">
         <v>8</v>
@@ -1193,15 +1229,18 @@
         <v>16</v>
       </c>
       <c r="K10" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="L10" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+        <v>148</v>
+      </c>
+      <c r="M10" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B11" t="s">
         <v>2</v>
@@ -1231,15 +1270,18 @@
         <v>16</v>
       </c>
       <c r="K11" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="L11" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+        <v>149</v>
+      </c>
+      <c r="M11" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B12" t="s">
         <v>2</v>
@@ -1269,21 +1311,24 @@
         <v>17</v>
       </c>
       <c r="K12" t="s">
+        <v>145</v>
+      </c>
+      <c r="L12" t="s">
         <v>148</v>
       </c>
-      <c r="L12" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M12" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B13" t="s">
         <v>1</v>
       </c>
       <c r="C13" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D13" t="s">
         <v>8</v>
@@ -1307,21 +1352,24 @@
         <v>17</v>
       </c>
       <c r="K13" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="L13" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
+        <v>149</v>
+      </c>
+      <c r="M13" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B14" t="s">
         <v>1</v>
       </c>
       <c r="C14" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D14" t="s">
         <v>9</v>
@@ -1345,21 +1393,24 @@
         <v>17</v>
       </c>
       <c r="K14" t="s">
+        <v>145</v>
+      </c>
+      <c r="L14" t="s">
         <v>148</v>
       </c>
-      <c r="L14" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M14" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B15" t="s">
         <v>1</v>
       </c>
       <c r="C15" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D15" t="s">
         <v>10</v>
@@ -1383,21 +1434,24 @@
         <v>16</v>
       </c>
       <c r="K15" t="s">
+        <v>145</v>
+      </c>
+      <c r="L15" t="s">
         <v>148</v>
       </c>
-      <c r="L15" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M15" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B16" t="s">
         <v>2</v>
       </c>
       <c r="C16" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D16" t="s">
         <v>10</v>
@@ -1421,15 +1475,18 @@
         <v>16</v>
       </c>
       <c r="K16" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="L16" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
+        <v>149</v>
+      </c>
+      <c r="M16" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B17" t="s">
         <v>1</v>
@@ -1459,15 +1516,18 @@
         <v>17</v>
       </c>
       <c r="K17" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="L17" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
+        <v>148</v>
+      </c>
+      <c r="M17" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B18" t="s">
         <v>2</v>
@@ -1497,15 +1557,18 @@
         <v>17</v>
       </c>
       <c r="K18" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="L18" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
+        <v>149</v>
+      </c>
+      <c r="M18" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B19" t="s">
         <v>1</v>
@@ -1535,15 +1598,18 @@
         <v>17</v>
       </c>
       <c r="K19" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="L19" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
+        <v>148</v>
+      </c>
+      <c r="M19" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B20" t="s">
         <v>2</v>
@@ -1573,15 +1639,18 @@
         <v>17</v>
       </c>
       <c r="K20" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="L20" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
+        <v>149</v>
+      </c>
+      <c r="M20" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B21" t="s">
         <v>1</v>
@@ -1611,15 +1680,18 @@
         <v>16</v>
       </c>
       <c r="K21" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="L21" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
+        <v>148</v>
+      </c>
+      <c r="M21" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B22" t="s">
         <v>1</v>
@@ -1649,15 +1721,18 @@
         <v>17</v>
       </c>
       <c r="K22" t="s">
+        <v>145</v>
+      </c>
+      <c r="L22" t="s">
         <v>148</v>
       </c>
-      <c r="L22" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M22" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B23" t="s">
         <v>1</v>
@@ -1687,15 +1762,18 @@
         <v>17</v>
       </c>
       <c r="K23" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="L23" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
+        <v>149</v>
+      </c>
+      <c r="M23" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B24" t="s">
         <v>1</v>
@@ -1725,21 +1803,24 @@
         <v>17</v>
       </c>
       <c r="K24" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="L24" t="s">
+        <v>149</v>
+      </c>
+      <c r="M24" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>43</v>
+      </c>
+      <c r="B25" t="s">
+        <v>1</v>
+      </c>
+      <c r="C25" t="s">
         <v>19</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A25" t="s">
-        <v>46</v>
-      </c>
-      <c r="B25" t="s">
-        <v>1</v>
-      </c>
-      <c r="C25" t="s">
-        <v>22</v>
       </c>
       <c r="D25" t="s">
         <v>10</v>
@@ -1763,15 +1844,18 @@
         <v>17</v>
       </c>
       <c r="K25" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="L25" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
+        <v>148</v>
+      </c>
+      <c r="M25" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B26" t="s">
         <v>2</v>
@@ -1801,15 +1885,18 @@
         <v>16</v>
       </c>
       <c r="K26" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="L26" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
+        <v>149</v>
+      </c>
+      <c r="M26" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B27" t="s">
         <v>2</v>
@@ -1839,22 +1926,25 @@
         <v>16</v>
       </c>
       <c r="K27" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="L27" t="s">
+        <v>148</v>
+      </c>
+      <c r="M27" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>46</v>
+      </c>
+      <c r="B28" t="s">
+        <v>1</v>
+      </c>
+      <c r="C28" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A28" t="s">
-        <v>49</v>
-      </c>
-      <c r="B28" t="s">
-        <v>1</v>
-      </c>
-      <c r="C28" t="s">
-        <v>22</v>
-      </c>
       <c r="D28" t="s">
         <v>9</v>
       </c>
@@ -1877,15 +1967,18 @@
         <v>16</v>
       </c>
       <c r="K28" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="L28" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.35">
+        <v>149</v>
+      </c>
+      <c r="M28" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B29" t="s">
         <v>2</v>
@@ -1915,15 +2008,18 @@
         <v>16</v>
       </c>
       <c r="K29" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="L29" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.35">
+        <v>148</v>
+      </c>
+      <c r="M29" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B30" t="s">
         <v>2</v>
@@ -1953,15 +2049,18 @@
         <v>16</v>
       </c>
       <c r="K30" t="s">
+        <v>145</v>
+      </c>
+      <c r="L30" t="s">
         <v>148</v>
       </c>
-      <c r="L30" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M30" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B31" t="s">
         <v>1</v>
@@ -1991,15 +2090,18 @@
         <v>16</v>
       </c>
       <c r="K31" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="L31" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.35">
+        <v>149</v>
+      </c>
+      <c r="M31" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B32" t="s">
         <v>2</v>
@@ -2029,15 +2131,18 @@
         <v>17</v>
       </c>
       <c r="K32" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="L32" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.35">
+        <v>149</v>
+      </c>
+      <c r="M32" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B33" t="s">
         <v>2</v>
@@ -2067,15 +2172,18 @@
         <v>17</v>
       </c>
       <c r="K33" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="L33" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.35">
+        <v>149</v>
+      </c>
+      <c r="M33" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B34" t="s">
         <v>2</v>
@@ -2105,21 +2213,24 @@
         <v>16</v>
       </c>
       <c r="K34" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="L34" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.35">
+        <v>149</v>
+      </c>
+      <c r="M34" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B35" t="s">
         <v>1</v>
       </c>
       <c r="C35" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D35" t="s">
         <v>8</v>
@@ -2143,15 +2254,18 @@
         <v>16</v>
       </c>
       <c r="K35" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="L35" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.35">
+        <v>148</v>
+      </c>
+      <c r="M35" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B36" t="s">
         <v>1</v>
@@ -2181,15 +2295,18 @@
         <v>17</v>
       </c>
       <c r="K36" t="s">
+        <v>145</v>
+      </c>
+      <c r="L36" t="s">
         <v>148</v>
       </c>
-      <c r="L36" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M36" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B37" t="s">
         <v>2</v>
@@ -2219,22 +2336,25 @@
         <v>17</v>
       </c>
       <c r="K37" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="L37" t="s">
+        <v>149</v>
+      </c>
+      <c r="M37" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>56</v>
+      </c>
+      <c r="B38" t="s">
+        <v>1</v>
+      </c>
+      <c r="C38" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A38" t="s">
-        <v>59</v>
-      </c>
-      <c r="B38" t="s">
-        <v>1</v>
-      </c>
-      <c r="C38" t="s">
-        <v>22</v>
-      </c>
       <c r="D38" t="s">
         <v>10</v>
       </c>
@@ -2256,13 +2376,19 @@
       <c r="J38" t="s">
         <v>17</v>
       </c>
+      <c r="K38" t="s">
+        <v>145</v>
+      </c>
       <c r="L38" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.35">
+        <v>149</v>
+      </c>
+      <c r="M38" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B39" t="s">
         <v>2</v>
@@ -2291,13 +2417,19 @@
       <c r="J39" t="s">
         <v>16</v>
       </c>
+      <c r="K39" t="s">
+        <v>146</v>
+      </c>
       <c r="L39" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.35">
+        <v>148</v>
+      </c>
+      <c r="M39" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B40" t="s">
         <v>1</v>
@@ -2326,13 +2458,19 @@
       <c r="J40" t="s">
         <v>17</v>
       </c>
+      <c r="K40" t="s">
+        <v>144</v>
+      </c>
       <c r="L40" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.35">
+        <v>149</v>
+      </c>
+      <c r="M40" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B41" t="s">
         <v>2</v>
@@ -2361,19 +2499,25 @@
       <c r="J41" t="s">
         <v>16</v>
       </c>
+      <c r="K41" t="s">
+        <v>144</v>
+      </c>
       <c r="L41" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.35">
+        <v>148</v>
+      </c>
+      <c r="M41" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B42" t="s">
         <v>1</v>
       </c>
       <c r="C42" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D42" t="s">
         <v>8</v>
@@ -2396,13 +2540,19 @@
       <c r="J42" t="s">
         <v>16</v>
       </c>
+      <c r="K42" t="s">
+        <v>145</v>
+      </c>
       <c r="L42" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.35">
+        <v>149</v>
+      </c>
+      <c r="M42" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B43" t="s">
         <v>1</v>
@@ -2431,13 +2581,19 @@
       <c r="J43" t="s">
         <v>16</v>
       </c>
+      <c r="K43" t="s">
+        <v>144</v>
+      </c>
       <c r="L43" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.35">
+        <v>148</v>
+      </c>
+      <c r="M43" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B44" t="s">
         <v>1</v>
@@ -2466,19 +2622,25 @@
       <c r="J44" t="s">
         <v>17</v>
       </c>
+      <c r="K44" t="s">
+        <v>145</v>
+      </c>
       <c r="L44" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.35">
+        <v>148</v>
+      </c>
+      <c r="M44" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B45" t="s">
         <v>2</v>
       </c>
       <c r="C45" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D45" t="s">
         <v>10</v>
@@ -2501,19 +2663,25 @@
       <c r="J45" t="s">
         <v>17</v>
       </c>
+      <c r="K45" t="s">
+        <v>145</v>
+      </c>
       <c r="L45" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.35">
+        <v>149</v>
+      </c>
+      <c r="M45" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B46" t="s">
         <v>2</v>
       </c>
       <c r="C46" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D46" t="s">
         <v>9</v>
@@ -2536,13 +2704,19 @@
       <c r="J46" t="s">
         <v>17</v>
       </c>
+      <c r="K46" t="s">
+        <v>145</v>
+      </c>
       <c r="L46" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.35">
+        <v>149</v>
+      </c>
+      <c r="M46" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B47" t="s">
         <v>1</v>
@@ -2571,13 +2745,19 @@
       <c r="J47" t="s">
         <v>17</v>
       </c>
+      <c r="K47" t="s">
+        <v>146</v>
+      </c>
       <c r="L47" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.35">
+        <v>149</v>
+      </c>
+      <c r="M47" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B48" t="s">
         <v>1</v>
@@ -2606,13 +2786,19 @@
       <c r="J48" t="s">
         <v>16</v>
       </c>
+      <c r="K48" t="s">
+        <v>145</v>
+      </c>
       <c r="L48" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.35">
+        <v>149</v>
+      </c>
+      <c r="M48" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B49" t="s">
         <v>1</v>
@@ -2641,13 +2827,19 @@
       <c r="J49" t="s">
         <v>16</v>
       </c>
+      <c r="K49" t="s">
+        <v>146</v>
+      </c>
       <c r="L49" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.35">
+        <v>148</v>
+      </c>
+      <c r="M49" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B50" t="s">
         <v>1</v>
@@ -2676,13 +2868,19 @@
       <c r="J50" t="s">
         <v>16</v>
       </c>
+      <c r="K50" t="s">
+        <v>145</v>
+      </c>
       <c r="L50" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.35">
+        <v>148</v>
+      </c>
+      <c r="M50" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B51" t="s">
         <v>1</v>
@@ -2711,20 +2909,26 @@
       <c r="J51" t="s">
         <v>17</v>
       </c>
+      <c r="K51" t="s">
+        <v>146</v>
+      </c>
       <c r="L51" t="s">
+        <v>149</v>
+      </c>
+      <c r="M51" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>70</v>
+      </c>
+      <c r="B52" t="s">
+        <v>1</v>
+      </c>
+      <c r="C52" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A52" t="s">
-        <v>73</v>
-      </c>
-      <c r="B52" t="s">
-        <v>1</v>
-      </c>
-      <c r="C52" t="s">
-        <v>22</v>
-      </c>
       <c r="D52" t="s">
         <v>10</v>
       </c>
@@ -2746,13 +2950,19 @@
       <c r="J52" t="s">
         <v>17</v>
       </c>
+      <c r="K52" t="s">
+        <v>145</v>
+      </c>
       <c r="L52" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.35">
+        <v>149</v>
+      </c>
+      <c r="M52" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B53" t="s">
         <v>1</v>
@@ -2781,13 +2991,19 @@
       <c r="J53" t="s">
         <v>16</v>
       </c>
+      <c r="K53" t="s">
+        <v>146</v>
+      </c>
       <c r="L53" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.35">
+        <v>148</v>
+      </c>
+      <c r="M53" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B54" t="s">
         <v>1</v>
@@ -2816,13 +3032,19 @@
       <c r="J54" t="s">
         <v>17</v>
       </c>
+      <c r="K54" t="s">
+        <v>144</v>
+      </c>
       <c r="L54" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.35">
+        <v>149</v>
+      </c>
+      <c r="M54" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B55" t="s">
         <v>1</v>
@@ -2851,13 +3073,19 @@
       <c r="J55" t="s">
         <v>17</v>
       </c>
+      <c r="K55" t="s">
+        <v>144</v>
+      </c>
       <c r="L55" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.35">
+        <v>148</v>
+      </c>
+      <c r="M55" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B56" t="s">
         <v>1</v>
@@ -2886,19 +3114,25 @@
       <c r="J56" t="s">
         <v>16</v>
       </c>
+      <c r="K56" t="s">
+        <v>145</v>
+      </c>
       <c r="L56" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.35">
+        <v>149</v>
+      </c>
+      <c r="M56" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B57" t="s">
         <v>1</v>
       </c>
       <c r="C57" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D57" t="s">
         <v>10</v>
@@ -2921,19 +3155,25 @@
       <c r="J57" t="s">
         <v>17</v>
       </c>
+      <c r="K57" t="s">
+        <v>144</v>
+      </c>
       <c r="L57" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.35">
+        <v>148</v>
+      </c>
+      <c r="M57" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B58" t="s">
         <v>2</v>
       </c>
       <c r="C58" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D58" t="s">
         <v>8</v>
@@ -2956,19 +3196,25 @@
       <c r="J58" t="s">
         <v>17</v>
       </c>
+      <c r="K58" t="s">
+        <v>145</v>
+      </c>
       <c r="L58" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.35">
+        <v>148</v>
+      </c>
+      <c r="M58" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B59" t="s">
         <v>2</v>
       </c>
       <c r="C59" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D59" t="s">
         <v>9</v>
@@ -2991,19 +3237,25 @@
       <c r="J59" t="s">
         <v>17</v>
       </c>
+      <c r="K59" t="s">
+        <v>145</v>
+      </c>
       <c r="L59" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.35">
+        <v>149</v>
+      </c>
+      <c r="M59" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B60" t="s">
         <v>1</v>
       </c>
       <c r="C60" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D60" t="s">
         <v>8</v>
@@ -3026,13 +3278,19 @@
       <c r="J60" t="s">
         <v>16</v>
       </c>
+      <c r="K60" t="s">
+        <v>145</v>
+      </c>
       <c r="L60" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.35">
+        <v>149</v>
+      </c>
+      <c r="M60" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B61" t="s">
         <v>2</v>
@@ -3061,13 +3319,19 @@
       <c r="J61" t="s">
         <v>16</v>
       </c>
+      <c r="K61" t="s">
+        <v>146</v>
+      </c>
       <c r="L61" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.35">
+        <v>149</v>
+      </c>
+      <c r="M61" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B62" t="s">
         <v>2</v>
@@ -3096,19 +3360,25 @@
       <c r="J62" t="s">
         <v>16</v>
       </c>
+      <c r="K62" t="s">
+        <v>145</v>
+      </c>
       <c r="L62" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.35">
+        <v>149</v>
+      </c>
+      <c r="M62" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B63" t="s">
         <v>1</v>
       </c>
       <c r="C63" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D63" t="s">
         <v>10</v>
@@ -3131,13 +3401,19 @@
       <c r="J63" t="s">
         <v>17</v>
       </c>
+      <c r="K63" t="s">
+        <v>146</v>
+      </c>
       <c r="L63" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.35">
+        <v>148</v>
+      </c>
+      <c r="M63" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B64" t="s">
         <v>1</v>
@@ -3166,13 +3442,19 @@
       <c r="J64" t="s">
         <v>17</v>
       </c>
+      <c r="K64" t="s">
+        <v>145</v>
+      </c>
       <c r="L64" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.35">
+        <v>148</v>
+      </c>
+      <c r="M64" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B65" t="s">
         <v>2</v>
@@ -3201,13 +3483,19 @@
       <c r="J65" t="s">
         <v>17</v>
       </c>
+      <c r="K65" t="s">
+        <v>146</v>
+      </c>
       <c r="L65" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.35">
+        <v>149</v>
+      </c>
+      <c r="M65" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B66" t="s">
         <v>1</v>
@@ -3236,13 +3524,19 @@
       <c r="J66" t="s">
         <v>17</v>
       </c>
+      <c r="K66" t="s">
+        <v>145</v>
+      </c>
       <c r="L66" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.35">
+        <v>149</v>
+      </c>
+      <c r="M66" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B67" t="s">
         <v>1</v>
@@ -3271,13 +3565,19 @@
       <c r="J67" t="s">
         <v>16</v>
       </c>
+      <c r="K67" t="s">
+        <v>146</v>
+      </c>
       <c r="L67" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.35">
+        <v>148</v>
+      </c>
+      <c r="M67" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B68" t="s">
         <v>2</v>
@@ -3306,13 +3606,19 @@
       <c r="J68" t="s">
         <v>16</v>
       </c>
+      <c r="K68" t="s">
+        <v>144</v>
+      </c>
       <c r="L68" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.35">
+        <v>149</v>
+      </c>
+      <c r="M68" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B69" t="s">
         <v>1</v>
@@ -3341,13 +3647,19 @@
       <c r="J69" t="s">
         <v>16</v>
       </c>
+      <c r="K69" t="s">
+        <v>144</v>
+      </c>
       <c r="L69" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.35">
+        <v>148</v>
+      </c>
+      <c r="M69" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B70" t="s">
         <v>2</v>
@@ -3376,19 +3688,25 @@
       <c r="J70" t="s">
         <v>16</v>
       </c>
+      <c r="K70" t="s">
+        <v>145</v>
+      </c>
       <c r="L70" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.35">
+        <v>149</v>
+      </c>
+      <c r="M70" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B71" t="s">
         <v>2</v>
       </c>
       <c r="C71" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D71" t="s">
         <v>9</v>
@@ -3411,13 +3729,19 @@
       <c r="J71" t="s">
         <v>17</v>
       </c>
+      <c r="K71" t="s">
+        <v>144</v>
+      </c>
       <c r="L71" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.35">
+        <v>148</v>
+      </c>
+      <c r="M71" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B72" t="s">
         <v>1</v>
@@ -3446,13 +3770,19 @@
       <c r="J72" t="s">
         <v>17</v>
       </c>
+      <c r="K72" t="s">
+        <v>145</v>
+      </c>
       <c r="L72" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.35">
+        <v>148</v>
+      </c>
+      <c r="M72" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B73" t="s">
         <v>1</v>
@@ -3481,13 +3811,19 @@
       <c r="J73" t="s">
         <v>16</v>
       </c>
+      <c r="K73" t="s">
+        <v>145</v>
+      </c>
       <c r="L73" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.35">
+        <v>149</v>
+      </c>
+      <c r="M73" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B74" t="s">
         <v>1</v>
@@ -3516,13 +3852,19 @@
       <c r="J74" t="s">
         <v>17</v>
       </c>
+      <c r="K74" t="s">
+        <v>145</v>
+      </c>
       <c r="L74" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.35">
+        <v>149</v>
+      </c>
+      <c r="M74" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B75" t="s">
         <v>2</v>
@@ -3551,13 +3893,19 @@
       <c r="J75" t="s">
         <v>16</v>
       </c>
+      <c r="K75" t="s">
+        <v>146</v>
+      </c>
       <c r="L75" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.35">
+        <v>149</v>
+      </c>
+      <c r="M75" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B76" t="s">
         <v>2</v>
@@ -3586,13 +3934,19 @@
       <c r="J76" t="s">
         <v>16</v>
       </c>
+      <c r="K76" t="s">
+        <v>145</v>
+      </c>
       <c r="L76" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.35">
+        <v>149</v>
+      </c>
+      <c r="M76" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B77" t="s">
         <v>1</v>
@@ -3621,19 +3975,25 @@
       <c r="J77" t="s">
         <v>16</v>
       </c>
+      <c r="K77" t="s">
+        <v>146</v>
+      </c>
       <c r="L77" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.35">
+        <v>148</v>
+      </c>
+      <c r="M77" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B78" t="s">
         <v>2</v>
       </c>
       <c r="C78" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D78" t="s">
         <v>8</v>
@@ -3656,55 +4016,67 @@
       <c r="J78" t="s">
         <v>17</v>
       </c>
+      <c r="K78" t="s">
+        <v>145</v>
+      </c>
       <c r="L78" t="s">
+        <v>148</v>
+      </c>
+      <c r="M78" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>97</v>
+      </c>
+      <c r="B79" t="s">
+        <v>1</v>
+      </c>
+      <c r="C79" t="s">
+        <v>3</v>
+      </c>
+      <c r="D79" t="s">
+        <v>9</v>
+      </c>
+      <c r="E79" t="s">
+        <v>10</v>
+      </c>
+      <c r="F79" t="s">
+        <v>12</v>
+      </c>
+      <c r="G79" t="s">
+        <v>16</v>
+      </c>
+      <c r="H79" t="s">
+        <v>17</v>
+      </c>
+      <c r="I79" t="s">
+        <v>16</v>
+      </c>
+      <c r="J79" t="s">
+        <v>17</v>
+      </c>
+      <c r="K79" t="s">
+        <v>146</v>
+      </c>
+      <c r="L79" t="s">
+        <v>149</v>
+      </c>
+      <c r="M79" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>98</v>
+      </c>
+      <c r="B80" t="s">
+        <v>1</v>
+      </c>
+      <c r="C80" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A79" t="s">
-        <v>100</v>
-      </c>
-      <c r="B79" t="s">
-        <v>1</v>
-      </c>
-      <c r="C79" t="s">
-        <v>3</v>
-      </c>
-      <c r="D79" t="s">
-        <v>9</v>
-      </c>
-      <c r="E79" t="s">
-        <v>10</v>
-      </c>
-      <c r="F79" t="s">
-        <v>12</v>
-      </c>
-      <c r="G79" t="s">
-        <v>16</v>
-      </c>
-      <c r="H79" t="s">
-        <v>17</v>
-      </c>
-      <c r="I79" t="s">
-        <v>16</v>
-      </c>
-      <c r="J79" t="s">
-        <v>17</v>
-      </c>
-      <c r="L79" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A80" t="s">
-        <v>101</v>
-      </c>
-      <c r="B80" t="s">
-        <v>1</v>
-      </c>
-      <c r="C80" t="s">
-        <v>22</v>
-      </c>
       <c r="D80" t="s">
         <v>8</v>
       </c>
@@ -3726,13 +4098,19 @@
       <c r="J80" t="s">
         <v>17</v>
       </c>
+      <c r="K80" t="s">
+        <v>145</v>
+      </c>
       <c r="L80" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.35">
+        <v>149</v>
+      </c>
+      <c r="M80" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B81" t="s">
         <v>2</v>
@@ -3761,19 +4139,25 @@
       <c r="J81" t="s">
         <v>16</v>
       </c>
+      <c r="K81" t="s">
+        <v>146</v>
+      </c>
       <c r="L81" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.35">
+        <v>148</v>
+      </c>
+      <c r="M81" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B82" t="s">
         <v>1</v>
       </c>
       <c r="C82" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D82" t="s">
         <v>8</v>
@@ -3796,118 +4180,142 @@
       <c r="J82" t="s">
         <v>17</v>
       </c>
+      <c r="K82" t="s">
+        <v>144</v>
+      </c>
       <c r="L82" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.35">
+        <v>149</v>
+      </c>
+      <c r="M82" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
+        <v>101</v>
+      </c>
+      <c r="B83" t="s">
+        <v>1</v>
+      </c>
+      <c r="C83" t="s">
+        <v>3</v>
+      </c>
+      <c r="D83" t="s">
+        <v>8</v>
+      </c>
+      <c r="E83" t="s">
+        <v>9</v>
+      </c>
+      <c r="F83" t="s">
+        <v>12</v>
+      </c>
+      <c r="G83" t="s">
+        <v>16</v>
+      </c>
+      <c r="H83" t="s">
+        <v>16</v>
+      </c>
+      <c r="I83" t="s">
+        <v>16</v>
+      </c>
+      <c r="J83" t="s">
+        <v>17</v>
+      </c>
+      <c r="K83" t="s">
+        <v>144</v>
+      </c>
+      <c r="L83" t="s">
+        <v>148</v>
+      </c>
+      <c r="M83" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>102</v>
+      </c>
+      <c r="B84" t="s">
+        <v>1</v>
+      </c>
+      <c r="C84" t="s">
+        <v>3</v>
+      </c>
+      <c r="D84" t="s">
+        <v>10</v>
+      </c>
+      <c r="E84" t="s">
+        <v>8</v>
+      </c>
+      <c r="F84" t="s">
+        <v>12</v>
+      </c>
+      <c r="G84" t="s">
+        <v>16</v>
+      </c>
+      <c r="H84" t="s">
+        <v>16</v>
+      </c>
+      <c r="I84" t="s">
+        <v>16</v>
+      </c>
+      <c r="J84" t="s">
+        <v>17</v>
+      </c>
+      <c r="K84" t="s">
+        <v>145</v>
+      </c>
+      <c r="L84" t="s">
+        <v>149</v>
+      </c>
+      <c r="M84" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>103</v>
+      </c>
+      <c r="B85" t="s">
+        <v>1</v>
+      </c>
+      <c r="C85" t="s">
+        <v>19</v>
+      </c>
+      <c r="D85" t="s">
+        <v>10</v>
+      </c>
+      <c r="E85" t="s">
+        <v>8</v>
+      </c>
+      <c r="F85" t="s">
+        <v>12</v>
+      </c>
+      <c r="G85" t="s">
+        <v>16</v>
+      </c>
+      <c r="H85" t="s">
+        <v>16</v>
+      </c>
+      <c r="I85" t="s">
+        <v>16</v>
+      </c>
+      <c r="J85" t="s">
+        <v>16</v>
+      </c>
+      <c r="K85" t="s">
+        <v>144</v>
+      </c>
+      <c r="L85" t="s">
+        <v>148</v>
+      </c>
+      <c r="M85" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
         <v>104</v>
-      </c>
-      <c r="B83" t="s">
-        <v>1</v>
-      </c>
-      <c r="C83" t="s">
-        <v>3</v>
-      </c>
-      <c r="D83" t="s">
-        <v>8</v>
-      </c>
-      <c r="E83" t="s">
-        <v>9</v>
-      </c>
-      <c r="F83" t="s">
-        <v>12</v>
-      </c>
-      <c r="G83" t="s">
-        <v>16</v>
-      </c>
-      <c r="H83" t="s">
-        <v>16</v>
-      </c>
-      <c r="I83" t="s">
-        <v>16</v>
-      </c>
-      <c r="J83" t="s">
-        <v>17</v>
-      </c>
-      <c r="L83" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A84" t="s">
-        <v>105</v>
-      </c>
-      <c r="B84" t="s">
-        <v>1</v>
-      </c>
-      <c r="C84" t="s">
-        <v>3</v>
-      </c>
-      <c r="D84" t="s">
-        <v>10</v>
-      </c>
-      <c r="E84" t="s">
-        <v>8</v>
-      </c>
-      <c r="F84" t="s">
-        <v>12</v>
-      </c>
-      <c r="G84" t="s">
-        <v>16</v>
-      </c>
-      <c r="H84" t="s">
-        <v>16</v>
-      </c>
-      <c r="I84" t="s">
-        <v>16</v>
-      </c>
-      <c r="J84" t="s">
-        <v>17</v>
-      </c>
-      <c r="L84" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A85" t="s">
-        <v>106</v>
-      </c>
-      <c r="B85" t="s">
-        <v>1</v>
-      </c>
-      <c r="C85" t="s">
-        <v>22</v>
-      </c>
-      <c r="D85" t="s">
-        <v>10</v>
-      </c>
-      <c r="E85" t="s">
-        <v>8</v>
-      </c>
-      <c r="F85" t="s">
-        <v>12</v>
-      </c>
-      <c r="G85" t="s">
-        <v>16</v>
-      </c>
-      <c r="H85" t="s">
-        <v>16</v>
-      </c>
-      <c r="I85" t="s">
-        <v>16</v>
-      </c>
-      <c r="J85" t="s">
-        <v>16</v>
-      </c>
-      <c r="L85" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A86" t="s">
-        <v>107</v>
       </c>
       <c r="B86" t="s">
         <v>1</v>
@@ -3936,13 +4344,19 @@
       <c r="J86" t="s">
         <v>16</v>
       </c>
+      <c r="K86" t="s">
+        <v>145</v>
+      </c>
       <c r="L86" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.35">
+        <v>148</v>
+      </c>
+      <c r="M86" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B87" t="s">
         <v>1</v>
@@ -3971,13 +4385,19 @@
       <c r="J87" t="s">
         <v>17</v>
       </c>
+      <c r="K87" t="s">
+        <v>145</v>
+      </c>
       <c r="L87" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.35">
+        <v>149</v>
+      </c>
+      <c r="M87" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B88" t="s">
         <v>1</v>
@@ -4006,13 +4426,19 @@
       <c r="J88" t="s">
         <v>16</v>
       </c>
+      <c r="K88" t="s">
+        <v>145</v>
+      </c>
       <c r="L88" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.35">
+        <v>149</v>
+      </c>
+      <c r="M88" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B89" t="s">
         <v>2</v>
@@ -4041,13 +4467,19 @@
       <c r="J89" t="s">
         <v>16</v>
       </c>
+      <c r="K89" t="s">
+        <v>146</v>
+      </c>
       <c r="L89" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.35">
+        <v>149</v>
+      </c>
+      <c r="M89" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B90" t="s">
         <v>2</v>
@@ -4076,19 +4508,25 @@
       <c r="J90" t="s">
         <v>16</v>
       </c>
+      <c r="K90" t="s">
+        <v>145</v>
+      </c>
       <c r="L90" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.35">
+        <v>149</v>
+      </c>
+      <c r="M90" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B91" t="s">
         <v>2</v>
       </c>
       <c r="C91" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D91" t="s">
         <v>10</v>
@@ -4111,19 +4549,25 @@
       <c r="J91" t="s">
         <v>17</v>
       </c>
+      <c r="K91" t="s">
+        <v>146</v>
+      </c>
       <c r="L91" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.35">
+        <v>148</v>
+      </c>
+      <c r="M91" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B92" t="s">
         <v>2</v>
       </c>
       <c r="C92" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D92" t="s">
         <v>9</v>
@@ -4146,13 +4590,19 @@
       <c r="J92" t="s">
         <v>16</v>
       </c>
+      <c r="K92" t="s">
+        <v>145</v>
+      </c>
       <c r="L92" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.35">
+        <v>148</v>
+      </c>
+      <c r="M92" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B93" t="s">
         <v>2</v>
@@ -4181,13 +4631,19 @@
       <c r="J93" t="s">
         <v>17</v>
       </c>
+      <c r="K93" t="s">
+        <v>146</v>
+      </c>
       <c r="L93" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.35">
+        <v>149</v>
+      </c>
+      <c r="M93" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B94" t="s">
         <v>1</v>
@@ -4216,20 +4672,26 @@
       <c r="J94" t="s">
         <v>17</v>
       </c>
+      <c r="K94" t="s">
+        <v>145</v>
+      </c>
       <c r="L94" t="s">
+        <v>149</v>
+      </c>
+      <c r="M94" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>113</v>
+      </c>
+      <c r="B95" t="s">
+        <v>1</v>
+      </c>
+      <c r="C95" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A95" t="s">
-        <v>116</v>
-      </c>
-      <c r="B95" t="s">
-        <v>1</v>
-      </c>
-      <c r="C95" t="s">
-        <v>22</v>
-      </c>
       <c r="D95" t="s">
         <v>10</v>
       </c>
@@ -4251,19 +4713,25 @@
       <c r="J95" t="s">
         <v>17</v>
       </c>
+      <c r="K95" t="s">
+        <v>146</v>
+      </c>
       <c r="L95" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.35">
+        <v>148</v>
+      </c>
+      <c r="M95" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B96" t="s">
         <v>1</v>
       </c>
       <c r="C96" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D96" t="s">
         <v>9</v>
@@ -4286,13 +4754,19 @@
       <c r="J96" t="s">
         <v>17</v>
       </c>
+      <c r="K96" t="s">
+        <v>144</v>
+      </c>
       <c r="L96" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.35">
+        <v>149</v>
+      </c>
+      <c r="M96" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B97" t="s">
         <v>2</v>
@@ -4321,13 +4795,19 @@
       <c r="J97" t="s">
         <v>17</v>
       </c>
+      <c r="K97" t="s">
+        <v>144</v>
+      </c>
       <c r="L97" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.35">
+        <v>148</v>
+      </c>
+      <c r="M97" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B98" t="s">
         <v>2</v>
@@ -4356,19 +4836,25 @@
       <c r="J98" t="s">
         <v>17</v>
       </c>
+      <c r="K98" t="s">
+        <v>145</v>
+      </c>
       <c r="L98" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.35">
+        <v>149</v>
+      </c>
+      <c r="M98" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B99" t="s">
         <v>2</v>
       </c>
       <c r="C99" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D99" t="s">
         <v>9</v>
@@ -4391,13 +4877,19 @@
       <c r="J99" t="s">
         <v>17</v>
       </c>
+      <c r="K99" t="s">
+        <v>144</v>
+      </c>
       <c r="L99" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.35">
+        <v>148</v>
+      </c>
+      <c r="M99" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B100" t="s">
         <v>1</v>
@@ -4426,19 +4918,25 @@
       <c r="J100" t="s">
         <v>16</v>
       </c>
+      <c r="K100" t="s">
+        <v>145</v>
+      </c>
       <c r="L100" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.35">
+        <v>148</v>
+      </c>
+      <c r="M100" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B101" t="s">
         <v>1</v>
       </c>
       <c r="C101" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D101" t="s">
         <v>8</v>
@@ -4461,13 +4959,19 @@
       <c r="J101" t="s">
         <v>17</v>
       </c>
+      <c r="K101" t="s">
+        <v>145</v>
+      </c>
       <c r="L101" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.35">
+        <v>149</v>
+      </c>
+      <c r="M101" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B102" t="s">
         <v>2</v>
@@ -4496,13 +5000,19 @@
       <c r="J102" t="s">
         <v>17</v>
       </c>
+      <c r="K102" t="s">
+        <v>145</v>
+      </c>
       <c r="L102" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.35">
+        <v>149</v>
+      </c>
+      <c r="M102" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B103" t="s">
         <v>2</v>
@@ -4531,13 +5041,19 @@
       <c r="J103" t="s">
         <v>16</v>
       </c>
+      <c r="K103" t="s">
+        <v>146</v>
+      </c>
       <c r="L103" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.35">
+        <v>149</v>
+      </c>
+      <c r="M103" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B104" t="s">
         <v>1</v>
@@ -4566,13 +5082,19 @@
       <c r="J104" t="s">
         <v>17</v>
       </c>
+      <c r="K104" t="s">
+        <v>145</v>
+      </c>
       <c r="L104" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.35">
+        <v>149</v>
+      </c>
+      <c r="M104" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B105" t="s">
         <v>2</v>
@@ -4601,13 +5123,19 @@
       <c r="J105" t="s">
         <v>16</v>
       </c>
+      <c r="K105" t="s">
+        <v>146</v>
+      </c>
       <c r="L105" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.35">
+        <v>148</v>
+      </c>
+      <c r="M105" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B106" t="s">
         <v>2</v>
@@ -4636,13 +5164,19 @@
       <c r="J106" t="s">
         <v>16</v>
       </c>
+      <c r="K106" t="s">
+        <v>145</v>
+      </c>
       <c r="L106" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.35">
+        <v>148</v>
+      </c>
+      <c r="M106" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="107" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B107" t="s">
         <v>2</v>
@@ -4671,13 +5205,19 @@
       <c r="J107" t="s">
         <v>16</v>
       </c>
+      <c r="K107" t="s">
+        <v>146</v>
+      </c>
       <c r="L107" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.35">
+        <v>149</v>
+      </c>
+      <c r="M107" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="108" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B108" t="s">
         <v>1</v>
@@ -4706,13 +5246,19 @@
       <c r="J108" t="s">
         <v>16</v>
       </c>
+      <c r="K108" t="s">
+        <v>145</v>
+      </c>
       <c r="L108" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.35">
+        <v>149</v>
+      </c>
+      <c r="M108" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="109" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B109" t="s">
         <v>2</v>
@@ -4741,13 +5287,19 @@
       <c r="J109" t="s">
         <v>16</v>
       </c>
+      <c r="K109" t="s">
+        <v>146</v>
+      </c>
       <c r="L109" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.35">
+        <v>148</v>
+      </c>
+      <c r="M109" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="110" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B110" t="s">
         <v>2</v>
@@ -4776,20 +5328,26 @@
       <c r="J110" t="s">
         <v>17</v>
       </c>
+      <c r="K110" t="s">
+        <v>144</v>
+      </c>
       <c r="L110" t="s">
+        <v>149</v>
+      </c>
+      <c r="M110" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="111" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>129</v>
+      </c>
+      <c r="B111" t="s">
+        <v>1</v>
+      </c>
+      <c r="C111" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A111" t="s">
-        <v>132</v>
-      </c>
-      <c r="B111" t="s">
-        <v>1</v>
-      </c>
-      <c r="C111" t="s">
-        <v>22</v>
-      </c>
       <c r="D111" t="s">
         <v>9</v>
       </c>
@@ -4811,13 +5369,19 @@
       <c r="J111" t="s">
         <v>16</v>
       </c>
+      <c r="K111" t="s">
+        <v>144</v>
+      </c>
       <c r="L111" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.35">
+        <v>148</v>
+      </c>
+      <c r="M111" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="112" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B112" t="s">
         <v>2</v>
@@ -4846,13 +5410,19 @@
       <c r="J112" t="s">
         <v>17</v>
       </c>
+      <c r="K112" t="s">
+        <v>145</v>
+      </c>
       <c r="L112" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.35">
+        <v>149</v>
+      </c>
+      <c r="M112" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="113" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B113" t="s">
         <v>2</v>
@@ -4881,19 +5451,25 @@
       <c r="J113" t="s">
         <v>17</v>
       </c>
+      <c r="K113" t="s">
+        <v>144</v>
+      </c>
       <c r="L113" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.35">
+        <v>149</v>
+      </c>
+      <c r="M113" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="114" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B114" t="s">
         <v>2</v>
       </c>
       <c r="C114" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D114" t="s">
         <v>8</v>
@@ -4916,19 +5492,25 @@
       <c r="J114" t="s">
         <v>17</v>
       </c>
+      <c r="K114" t="s">
+        <v>145</v>
+      </c>
       <c r="L114" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.35">
+        <v>148</v>
+      </c>
+      <c r="M114" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="115" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B115" t="s">
         <v>1</v>
       </c>
       <c r="C115" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D115" t="s">
         <v>9</v>
@@ -4951,13 +5533,19 @@
       <c r="J115" t="s">
         <v>17</v>
       </c>
+      <c r="K115" t="s">
+        <v>145</v>
+      </c>
       <c r="L115" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.35">
+        <v>148</v>
+      </c>
+      <c r="M115" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="116" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B116" t="s">
         <v>2</v>
@@ -4986,13 +5574,19 @@
       <c r="J116" t="s">
         <v>17</v>
       </c>
+      <c r="K116" t="s">
+        <v>145</v>
+      </c>
       <c r="L116" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="117" spans="1:12" x14ac:dyDescent="0.35">
+        <v>149</v>
+      </c>
+      <c r="M116" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="117" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B117" t="s">
         <v>2</v>
@@ -5021,19 +5615,25 @@
       <c r="J117" t="s">
         <v>16</v>
       </c>
+      <c r="K117" t="s">
+        <v>146</v>
+      </c>
       <c r="L117" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="118" spans="1:12" x14ac:dyDescent="0.35">
+        <v>149</v>
+      </c>
+      <c r="M117" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="118" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B118" t="s">
         <v>1</v>
       </c>
       <c r="C118" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D118" t="s">
         <v>8</v>
@@ -5056,13 +5656,19 @@
       <c r="J118" t="s">
         <v>17</v>
       </c>
+      <c r="K118" t="s">
+        <v>145</v>
+      </c>
       <c r="L118" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.35">
+        <v>148</v>
+      </c>
+      <c r="M118" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="119" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B119" t="s">
         <v>2</v>
@@ -5091,13 +5697,19 @@
       <c r="J119" t="s">
         <v>16</v>
       </c>
+      <c r="K119" t="s">
+        <v>146</v>
+      </c>
       <c r="L119" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="120" spans="1:12" x14ac:dyDescent="0.35">
+        <v>149</v>
+      </c>
+      <c r="M119" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="120" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B120" t="s">
         <v>2</v>
@@ -5126,19 +5738,25 @@
       <c r="J120" t="s">
         <v>17</v>
       </c>
+      <c r="K120" t="s">
+        <v>145</v>
+      </c>
       <c r="L120" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="121" spans="1:12" x14ac:dyDescent="0.35">
+        <v>148</v>
+      </c>
+      <c r="M120" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="121" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B121" t="s">
         <v>1</v>
       </c>
       <c r="C121" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D121" t="s">
         <v>10</v>
@@ -5161,13 +5779,19 @@
       <c r="J121" t="s">
         <v>16</v>
       </c>
+      <c r="K121" t="s">
+        <v>146</v>
+      </c>
       <c r="L121" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="122" spans="1:12" x14ac:dyDescent="0.35">
+        <v>149</v>
+      </c>
+      <c r="M121" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="122" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B122" t="s">
         <v>2</v>
@@ -5196,8 +5820,14 @@
       <c r="J122" t="s">
         <v>16</v>
       </c>
+      <c r="K122" t="s">
+        <v>145</v>
+      </c>
       <c r="L122" t="s">
-        <v>19</v>
+        <v>148</v>
+      </c>
+      <c r="M122" t="s">
+        <v>151</v>
       </c>
     </row>
   </sheetData>
